--- a/Tableau_Excel/DataNation.xlsx
+++ b/Tableau_Excel/DataNation.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amit\Office\Tableau\Live Classes\Lecture - 29_05_2020\Data Set\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\Datasets\Tableau_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A75751-2BA3-499B-BD8F-8178041FA213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174CED25-D07E-4E71-B3E7-026EB7CCC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BB104C48-7632-499E-A1BB-F7D3D89B1440}"/>
   </bookViews>
   <sheets>
     <sheet name="NationData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
   <si>
     <t>CityName</t>
   </si>
@@ -286,6 +280,12 @@
   </si>
   <si>
     <t>Vishakhapatnam[VI3]</t>
+  </si>
+  <si>
+    <t>Leh[LD1]</t>
+  </si>
+  <si>
+    <t>Ladakh</t>
   </si>
 </sst>
 </file>
@@ -324,9 +324,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,11 +642,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A687165-6C60-4E2B-B886-1F43BE2A53F0}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2226,6 +2225,35 @@
         <v>42754</v>
       </c>
     </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>150000</v>
+      </c>
+      <c r="F55">
+        <v>2500</v>
+      </c>
+      <c r="G55">
+        <v>5.5</v>
+      </c>
+      <c r="H55">
+        <v>10.5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>44037</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
